--- a/数据整理/stocks/A股/上证主板/601126-四方股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601126-四方股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007950</t>
+          <t>001917</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商量化精选股票C</t>
+          <t>招商量化精选股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.27</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.28</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001917</t>
+          <t>007950</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商量化精选股票A</t>
+          <t>招商量化精选股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.27</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.28</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>24.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.19</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3587</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.19</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601126-四方股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601126-四方股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601126-四方股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601126-四方股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -802,4 +803,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3318</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2615</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -E</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601126-四方股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601126-四方股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601126-四方股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601126-四方股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1134,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1145,17 +1146,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1165,14 +1186,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.71</v>
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6079</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1181,14 +1224,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2723</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1197,14 +1262,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.36</v>
+          <t>009415</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮瑞享两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1213,13 +1300,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -E</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009416</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮瑞享两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601126-四方股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601126-四方股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1457,7 +1458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1468,17 +1469,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1488,14 +1509,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1504,14 +1547,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.71</v>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1520,14 +1585,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1536,14 +1623,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.36</v>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1552,13 +1661,167 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601126-四方股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601126-四方股份.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,129 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001917</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>招商量化精选股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.27</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0106</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007950</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>招商量化精选股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.27</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -639,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001113</t>
+          <t>007811</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方大数据100指数A</t>
+          <t>淳厚信泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.74</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.19</t>
+          <t>79.98</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3587</t>
+          <t>0.1586</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +677,150 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004344</t>
+          <t>011349</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方大数据100指数C</t>
+          <t>淳厚现代服务业股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.19</t>
+          <t>88.96</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0028</t>
+          <t>0.1215</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -720,7 +834,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -741,7 +855,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -771,36 +885,264 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005126</t>
+          <t>001306</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河量化稳进混合</t>
+          <t>中欧永裕混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>71.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.14</t>
+          <t>92.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0018</t>
+          <t>2.6079</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2723</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009415</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮瑞享两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -E</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009416</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮瑞享两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1136,7 +1478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1157,7 +1499,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1187,264 +1529,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001306</t>
+          <t>005126</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧永裕混合A</t>
+          <t>银河量化稳进混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>71.45</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.21</t>
+          <t>87.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.6079</t>
+          <t>0.0018</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>166011</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧盛世成长混合 (LOF) -A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.46</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.25</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2723</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009415</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中邮瑞享两年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>34.44</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0556</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001888</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧盛世成长混合 (LOF) -E</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.25</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0215</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004233</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧盛世成长混合 (LOF) -C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.25</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0208</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001307</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧永裕混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.21</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0197</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009416</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中邮瑞享两年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>34.44</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1458,7 +1572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1479,7 +1593,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1509,36 +1623,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007811</t>
+          <t>001113</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>淳厚信泽灵活配置混合A</t>
+          <t>南方大数据100指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>24.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.98</t>
+          <t>93.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1586</t>
+          <t>0.3587</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1547,150 +1661,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011349</t>
+          <t>004344</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>淳厚现代服务业股票A</t>
+          <t>南方大数据100指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.96</t>
+          <t>93.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1215</t>
+          <t>0.0028</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
         <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010551</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>淳厚欣颐一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.56</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1052</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007812</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>淳厚信泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>79.98</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0268</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011350</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>淳厚现代服务业股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.96</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0216</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1704,128 +1704,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.43</v>
+          <t>001917</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.01</v>
+          <t>007950</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601126-四方股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601126-四方股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.43</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.71</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -583,6 +600,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5107</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4386</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012102</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保低碳经济混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012103</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保低碳经济混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -821,328 +1236,6 @@
       </c>
       <c r="H6" t="n">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001306</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧永裕混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>71.45</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.21</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.6079</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>166011</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧盛世成长混合 (LOF) -A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.46</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.25</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2723</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009415</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中邮瑞享两年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>34.44</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0556</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001888</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧盛世成长混合 (LOF) -E</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.25</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0215</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004233</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧盛世成长混合 (LOF) -C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.25</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0208</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001307</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧永裕混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.21</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0197</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009416</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中邮瑞享两年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>34.44</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1177,7 +1270,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1207,36 +1300,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>166011</t>
+          <t>001306</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧盛世成长混合 (LOF) -A</t>
+          <t>中欧永裕混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.87</t>
+          <t>71.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.36</t>
+          <t>92.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3318</t>
+          <t>2.6079</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1245,36 +1338,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001306</t>
+          <t>166011</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧永裕混合A</t>
+          <t>中欧盛世成长混合 (LOF) -A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>7.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.53</t>
+          <t>92.25</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2615</t>
+          <t>0.2723</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1283,32 +1376,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008180</t>
+          <t>009415</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>同泰慧利混合A</t>
+          <t>中邮瑞享两年定期开放混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>34.44</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0479</t>
+          <t>0.0556</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1331,26 +1424,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.36</t>
+          <t>92.25</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0256</t>
+          <t>0.0215</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1369,26 +1462,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.36</t>
+          <t>92.25</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0232</t>
+          <t>0.0208</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1407,26 +1500,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.53</t>
+          <t>92.21</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0131</t>
+          <t>0.0197</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1435,32 +1528,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008181</t>
+          <t>009416</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>同泰慧利混合C</t>
+          <t>中邮瑞享两年定期开放混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>34.44</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0030</t>
+          <t>0.0029</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1473,6 +1566,328 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3318</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2615</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -E</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1566,7 +1981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1698,7 +2113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
